--- a/src/test/resources/datasheets/SampleTest.xlsx
+++ b/src/test/resources/datasheets/SampleTest.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="18195" windowHeight="6975"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14985" windowHeight="6210"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1:O19"/>
 </workbook>
 </file>
 
@@ -858,10 +860,14 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -882,4 +888,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/datasheets/SampleTest.xlsx
+++ b/src/test/resources/datasheets/SampleTest.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:O19"/>
 </workbook>
 </file>
 
@@ -860,13 +859,20 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/src/test/resources/datasheets/SampleTest.xlsx
+++ b/src/test/resources/datasheets/SampleTest.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14985" windowHeight="6210"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14985" windowHeight="6210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="AddPriceAgreement" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Role</t>
   </si>
@@ -27,6 +27,12 @@
   </si>
   <si>
     <t>XEEVA -MJ</t>
+  </si>
+  <si>
+    <t>CU-CUBIC</t>
+  </si>
+  <si>
+    <t>selectUOM</t>
   </si>
 </sst>
 </file>
@@ -858,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -898,12 +904,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>